--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.011420-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.011420-2.xlsx_with_dialog_acts.xlsx
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3553,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3971,12 +3971,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4275,12 +4275,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4693,12 +4693,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5233,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5499,12 +5499,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5807,12 +5807,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6343,12 +6343,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6457,12 +6457,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6609,12 +6609,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6837,12 +6837,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8319,12 +8319,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9801,12 +9801,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9953,12 +9953,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10485,12 +10485,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10789,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11093,12 +11093,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11321,12 +11321,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11587,12 +11587,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11739,12 +11739,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12385,12 +12385,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12727,12 +12727,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12841,12 +12841,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12917,12 +12917,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13335,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13563,12 +13563,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13791,12 +13791,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13867,12 +13867,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14057,12 +14057,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14095,12 +14095,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15159,12 +15159,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15273,12 +15273,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15881,12 +15881,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16109,12 +16109,12 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17325,12 +17325,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17857,12 +17857,12 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18275,12 +18275,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18579,12 +18579,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18617,12 +18617,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19415,12 +19415,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19491,12 +19491,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20255,12 +20255,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20293,12 +20293,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20483,12 +20483,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20795,12 +20795,12 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20833,12 +20833,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20871,12 +20871,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21061,12 +21061,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21403,12 +21403,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21441,12 +21441,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21555,12 +21555,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21593,12 +21593,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21631,12 +21631,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21783,12 +21783,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21973,12 +21973,12 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22847,12 +22847,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22961,12 +22961,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23417,12 +23417,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23531,12 +23531,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23607,12 +23607,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23683,12 +23683,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23835,12 +23835,12 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23987,12 +23987,12 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24405,12 +24405,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24937,12 +24937,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25735,12 +25735,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26457,12 +26457,12 @@
       <c r="H684" t="inlineStr"/>
       <c r="I684" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26495,12 +26495,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26573,12 +26573,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
